--- a/docs/PT1/PT1_08.08.24_output.xlsx
+++ b/docs/PT1/PT1_08.08.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K73"/>
+  <dimension ref="A1:N73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,52 +437,67 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
         </is>
       </c>
     </row>
@@ -490,426 +505,505 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731005132.07159</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731005135.2530642</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731005132.07159.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731005135.2530642.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>283.76</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>282.98</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>-0.7799999999999727</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-0.27</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731005135.7257988</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731005136.316192</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731005135.7257988.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731005136.316192.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>282.47</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>282.75</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>0.2799999999999727</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731005140.961279</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731005142.4961987</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731005140.961279.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731005142.4961987.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>283.76</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>282.98</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>-0.7799999999999727</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-0.27</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731005142.9340284</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731005143.4855509</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/SBER1731005142.9340284.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/SBER1731005143.4855509.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>282.47</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>282.75</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>0.2799999999999727</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731005153.9819214</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731005154.9214077</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/SBER1731005153.9819214.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/SBER1731005154.9214077.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>284.26</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>284.29</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>0.03000000000002956</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731005155.7491915</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731005157.2007194</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731005155.7491915.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731005157.2007194.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>283.81</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>283.2</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>-0.6100000000000136</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-0.21</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731005157.6744251</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731005158.4323518</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731005157.6744251.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731005158.4323518.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>282.74</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>283.05</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0.3100000000000023</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731005162.9103963</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>./test_images/SBER1731005162.9103963.png</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+          <t>./test_images/SBER1731005162.9103963.png</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>282.85</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>282.85</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -917,2008 +1011,2377 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731005165.6121392</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731005166.0450108</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731005165.6121392.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731005166.0450108.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>129.99</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>130.24</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>0.25</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731005169.4703832</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731005169.7007666</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731005169.4703832.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731005169.7007666.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>130.1</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>130.46</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>0.3600000000000136</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.28</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731005171.1368945</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731005172.5051174</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731005171.1368945.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731005172.5051174.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>130.06</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>129.61</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>-0.4499999999999886</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-0.35</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731005178.6590998</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731005179.1388443</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731005178.6590998.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731005179.1388443.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>6492.5</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>6507</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>14.5</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731005181.1863377</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731005181.790721</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731005181.1863377.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731005181.790721.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>6505</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>6514.5</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>9.5</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731005184.8818762</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731005185.282805</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731005184.8818762.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731005185.282805.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>6510.5</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>6523</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>12.5</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731005185.4234555</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731005185.610926</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731005185.4234555.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731005185.610926.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>6507.5</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>6516.5</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>9</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731005187.1711612</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731005188.393888</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731005187.1711612.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731005188.393888.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>6506.5</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>6491</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>-15.5</v>
+      </c>
+      <c r="N18" t="n">
+        <v>-0.24</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731005194.1115868</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731005194.955329</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731005194.1115868.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731005194.955329.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>507.2</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>508.2</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>1</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731005200.8857455</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731005201.0712774</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731005200.8857455.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731005201.0712774.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>509.65</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>510.9</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>1.25</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731005202.3223755</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731005203.1890538</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731005202.3223755.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731005203.1890538.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>510.1</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>510</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>-0.1000000000000227</v>
+      </c>
+      <c r="N21" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731005203.8523026</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731005204.197406</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731005203.8523026.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731005204.197406.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>509.6</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>510.2</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>0.5999999999999659</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731005214.935642</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731005215.3295875</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731005214.935642.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731005215.3295875.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>228.7</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>229.34</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>0.6400000000000148</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.28</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731005215.4712098</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731005215.5719404</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731005215.4712098.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731005215.5719404.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>228.58</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>229.08</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>0.5</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731005216.846529</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731005218.2139816</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731005216.846529.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731005218.2139816.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>228.95</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>228.44</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>-0.5099999999999909</v>
+      </c>
+      <c r="N25" t="n">
+        <v>-0.22</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731005218.858229</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731005219.3349533</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731005218.858229.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731005219.3349533.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>228.17</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>228.37</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>0.2000000000000171</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731005224.2095475</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731005224.5137336</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731005224.2095475.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731005224.5137336.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>1011.2</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>1015</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>3.799999999999955</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.38</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731005230.2902758</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731005230.7929308</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731005230.2902758.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731005230.7929308.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>1022.8</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>1023</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>0.2000000000000455</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731005232.9371922</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731005234.1579294</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731005232.9371922.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731005234.1579294.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>1022</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>1020</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>-2</v>
+      </c>
+      <c r="N29" t="n">
+        <v>-0.2</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731005239.9892275</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731005241.8063653</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/CNY1731005239.9892275.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/CNY1731005241.8063653.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>11.899</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>11.94</v>
       </c>
-      <c r="K30" t="n">
-        <v>-0.04099999999999859</v>
+      <c r="M30" t="n">
+        <v>-0.04100000000000037</v>
+      </c>
+      <c r="N30" t="n">
+        <v>-0.34</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731005248.4376464</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731005249.9266346</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/CNY1731005248.4376464.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/CNY1731005249.9266346.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>11.934</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>11.933</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>-0.0009999999999994458</v>
+      </c>
+      <c r="N31" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731005258.2372174</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731005258.898504</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731005258.2372174.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731005258.898504.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>125.04</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>124.9</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>0.1400000000000006</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731005260.0644116</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731005260.4583576</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731005260.0644116.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731005260.4583576.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>124.28</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>124.4</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>0.1200000000000045</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731005261.1843874</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731005262.9227624</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731005261.1843874.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731005262.9227624.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>124.08</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>123.92</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>-0.1599999999999966</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-0.13</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731005263.168106</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731005263.562052</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731005263.168106.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731005263.562052.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>123.54</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>123.84</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>0.2999999999999972</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.24</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731005266.7764232</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731005267.247163</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731005266.7764232.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731005267.247163.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>123.96</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>123.84</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>0.1199999999999903</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731005268.6723492</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731005269.608847</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731005268.6723492.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731005269.608847.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>160.84</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>161.16</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>0.3199999999999932</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731005275.2427716</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731005275.5070634</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731005275.2427716.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731005275.5070634.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>161.7</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>161.94</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>0.2400000000000091</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731005276.7208154</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731005277.9555123</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731005276.7208154.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731005277.9555123.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>161.36</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>160.72</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>-0.6400000000000148</v>
+      </c>
+      <c r="N39" t="n">
+        <v>-0.4</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731005284.1139205</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731005284.7761824</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731005284.1139205.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731005284.7761824.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>49.45</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>49.405</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>-0.04500000000000171</v>
+      </c>
+      <c r="N40" t="n">
+        <v>-0.09</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731005289.1102083</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731005289.648795</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731005289.1102083.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731005289.648795.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>49.525</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>49.53</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>0.005000000000002558</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731005289.8312783</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731005290.2172468</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731005289.8312783.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731005290.2172468.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>49.39</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>49.425</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>0.03499999999999659</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731005291.4410014</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731005292.5829155</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731005291.4410014.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731005292.5829155.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>49.335</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>49.18</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>-0.1550000000000011</v>
+      </c>
+      <c r="N43" t="n">
+        <v>-0.31</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731005303.9524906</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731005304.8480933</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731005303.9524906.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731005304.8480933.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>1394.2</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>1392.4</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>-1.799999999999955</v>
+      </c>
+      <c r="N44" t="n">
+        <v>-0.13</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731005305.6140435</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731005307.0070713</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731005305.6140435.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731005307.0070713.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>1392.6</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>1388.8</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>-3.799999999999955</v>
+      </c>
+      <c r="N45" t="n">
+        <v>-0.27</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731005307.5236888</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731005308.5270047</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731005307.5236888.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731005308.5270047.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>1385.4</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>1386.4</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>1</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731005315.6578934</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731005315.8833253</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731005315.6578934.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731005315.8833253.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>61.3</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>61.49</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>0.1900000000000048</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.31</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731005316.148582</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731005316.9783876</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731005316.148582.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731005316.9783876.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>61.33</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>61.32</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>-0.00999999999999801</v>
+      </c>
+      <c r="N48" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731005317.8260918</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731005319.0986862</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731005317.8260918.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731005319.0986862.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>61.22</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>61.09</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>-0.1299999999999955</v>
+      </c>
+      <c r="N49" t="n">
+        <v>-0.21</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731005319.3629792</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731005319.664173</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731005319.3629792.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731005319.664173.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>60.77</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>61.09</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>0.3200000000000003</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.53</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731005328.606601</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731005328.7881174</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731005328.606601.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731005328.7881174.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>98.23</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>98.48</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="N51" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -2926,244 +3389,289 @@
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731005330.1365097</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731005330.446993</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731005330.1365097.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731005330.446993.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>98.36</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>98.59</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>0.230000000000004</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731005331.2184741</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731005332.6077838</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731005331.2184741.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731005332.6077838.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>98.37</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>98.29000000000001</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>-0.07999999999999829</v>
+      </c>
+      <c r="N53" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731005333.4964058</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731005334.7440667</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731005333.4964058.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731005334.7440667.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>98.20999999999999</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>98.03</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>-0.1799999999999926</v>
+      </c>
+      <c r="N54" t="n">
+        <v>-0.18</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731005343.5541399</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1731005344.222353</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/SELG1731005343.5541399.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/SELG1731005344.222353.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>55.99</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>56.11</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>0.1199999999999974</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731005346.1858096</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1731005346.9946465</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/SELG1731005346.1858096.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/SELG1731005346.9946465.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>56.01</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>56.01</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
+        <v>0</v>
+      </c>
+      <c r="N56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3171,293 +3679,347 @@
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731005365.784236</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731005366.837418</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731005365.784236.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731005366.837418.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>152.92</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>152.94</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>0.02000000000001023</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731005373.8139303</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1731005374.3753996</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731005373.8139303.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731005374.3753996.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>20.38</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>20.442</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>0.06200000000000117</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731005377.0727217</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1731005377.7997487</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731005377.0727217.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731005377.7997487.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>20.443</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>20.458</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>0.01499999999999702</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731005377.9423966</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1731005378.3762057</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731005377.9423966.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731005378.3762057.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>20.42</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>20.421</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>0.0009999999999976694</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731005379.5141602</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1731005381.9055014</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731005379.5141602.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731005381.9055014.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>20.351</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>20.281</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>-0.07000000000000028</v>
+      </c>
+      <c r="N61" t="n">
+        <v>-0.34</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731005392.4226117</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1731005392.833545</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731005392.4226117.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731005392.833545.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>678.3</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>678.3</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
+        <v>0</v>
+      </c>
+      <c r="N62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3465,539 +4027,638 @@
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731005393.6573088</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1731005394.8671055</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731005393.6573088.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731005394.8671055.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>677.25</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>677.15</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>-0.1000000000000227</v>
+      </c>
+      <c r="N63" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731005395.302904</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>1731005395.6120768</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731005395.302904.png</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731005395.6120768.png</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>675.45</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>676.7</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>1.25</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731005400.7804172</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>1731005402.0639536</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731005400.7804172.png</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731005402.0639536.png</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>155.49</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>155.45</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>-0.04000000000002046</v>
+      </c>
+      <c r="N65" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731005404.2690723</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>1731005404.618117</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731005404.2690723.png</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731005404.618117.png</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>155.53</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>156.49</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
         <v>0.960000000000008</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.62</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1731005408.5929806</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>1731005410.1358538</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731005408.5929806.png</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731005410.1358538.png</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>156.03</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>155.09</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>-0.9399999999999977</v>
+      </c>
+      <c r="N67" t="n">
+        <v>-0.6</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1731005410.6175911</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>1731005411.5351093</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731005410.6175911.png</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731005411.5351093.png</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>154.61</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>154.39</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
         <v>-0.2200000000000273</v>
+      </c>
+      <c r="N68" t="n">
+        <v>-0.14</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1731005416.6915812</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>1731005417.276044</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>./test_images/FEES1731005416.6915812.png</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>./test_images/FEES1731005417.276044.png</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>0.09720000000000001</v>
       </c>
-      <c r="J69" t="n">
+      <c r="L69" t="n">
         <v>0.09728000000000001</v>
       </c>
-      <c r="K69" t="n">
+      <c r="M69" t="n">
         <v>7.999999999999674e-05</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1731005421.4758077</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>1731005422.6127658</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>./test_images/FEES1731005421.4758077.png</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>./test_images/FEES1731005422.6127658.png</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>0.09770000000000001</v>
       </c>
-      <c r="J70" t="n">
+      <c r="L70" t="n">
         <v>0.09772</v>
       </c>
-      <c r="K70" t="n">
+      <c r="M70" t="n">
         <v>1.999999999999225e-05</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>1731005424.2653127</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>1731005424.4717903</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>./test_images/FEES1731005424.2653127.png</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>./test_images/FEES1731005424.4717903.png</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
         <v>0.09728000000000001</v>
       </c>
-      <c r="J71" t="n">
+      <c r="L71" t="n">
         <v>0.09746</v>
       </c>
-      <c r="K71" t="n">
+      <c r="M71" t="n">
         <v>0.0001799999999999996</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>1731005424.6722238</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>1731005425.636643</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>./test_images/FEES1731005424.6722238.png</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>./test_images/FEES1731005425.636643.png</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
         <v>0.09728000000000001</v>
       </c>
-      <c r="J72" t="n">
+      <c r="L72" t="n">
         <v>0.09732</v>
       </c>
-      <c r="K72" t="n">
+      <c r="M72" t="n">
         <v>3.999999999999837e-05</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>1731005436.0843294</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>1731005436.5660686</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>./test_images/MXI1731005436.0843294.png</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>./test_images/MXI1731005436.5660686.png</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
         <v>2935.05</v>
       </c>
-      <c r="J73" t="n">
+      <c r="L73" t="n">
         <v>2938.45</v>
       </c>
-      <c r="K73" t="n">
+      <c r="M73" t="n">
         <v>3.399999999999636</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0.12</v>
       </c>
     </row>
   </sheetData>
@@ -4011,7 +4672,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4035,6 +4696,21 @@
           <t>count</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>part</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -4048,6 +4724,15 @@
       <c r="C2" t="n">
         <v>6</v>
       </c>
+      <c r="D2" t="n">
+        <v>-0.1283333333333303</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-0.26</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-0.04</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -4061,6 +4746,15 @@
       <c r="C3" t="n">
         <v>5</v>
       </c>
+      <c r="D3" t="n">
+        <v>0.1039999999999992</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -4074,6 +4768,15 @@
       <c r="C4" t="n">
         <v>5</v>
       </c>
+      <c r="D4" t="n">
+        <v>6</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -4087,6 +4790,15 @@
       <c r="C5" t="n">
         <v>4</v>
       </c>
+      <c r="D5" t="n">
+        <v>0.001999999999998892</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -4100,6 +4812,15 @@
       <c r="C6" t="n">
         <v>4</v>
       </c>
+      <c r="D6" t="n">
+        <v>0.05500000000000327</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -4113,6 +4834,15 @@
       <c r="C7" t="n">
         <v>4</v>
       </c>
+      <c r="D7" t="n">
+        <v>0.6874999999999858</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -4126,6 +4856,15 @@
       <c r="C8" t="n">
         <v>4</v>
       </c>
+      <c r="D8" t="n">
+        <v>0.09250000000000291</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.6100000000000001</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -4139,6 +4878,15 @@
       <c r="C9" t="n">
         <v>4</v>
       </c>
+      <c r="D9" t="n">
+        <v>-0.06000000000000938</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-0.15</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-0.04</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -4152,6 +4900,15 @@
       <c r="C10" t="n">
         <v>4</v>
       </c>
+      <c r="D10" t="n">
+        <v>0.2075000000000102</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -4165,6 +4922,15 @@
       <c r="C11" t="n">
         <v>4</v>
       </c>
+      <c r="D11" t="n">
+        <v>-0.04000000000000092</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-0.32</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-0.08</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -4178,6 +4944,15 @@
       <c r="C12" t="n">
         <v>4</v>
       </c>
+      <c r="D12" t="n">
+        <v>7.999999999999674e-05</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -4191,6 +4966,15 @@
       <c r="C13" t="n">
         <v>3</v>
       </c>
+      <c r="D13" t="n">
+        <v>0.05333333333334167</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.1199999999999999</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -4204,6 +4988,15 @@
       <c r="C14" t="n">
         <v>3</v>
       </c>
+      <c r="D14" t="n">
+        <v>-0.02666666666667084</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-0.05000000000000004</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-0.02</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -4217,6 +5010,15 @@
       <c r="C15" t="n">
         <v>3</v>
       </c>
+      <c r="D15" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -4230,6 +5032,15 @@
       <c r="C16" t="n">
         <v>3</v>
       </c>
+      <c r="D16" t="n">
+        <v>-1.533333333333303</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-0.33</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-0.11</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -4243,6 +5054,15 @@
       <c r="C17" t="n">
         <v>3</v>
       </c>
+      <c r="D17" t="n">
+        <v>0.3833333333333258</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -4251,11 +5071,20 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.04199999999999804</v>
+        <v>-0.04199999999999982</v>
       </c>
       <c r="C18" t="n">
         <v>2</v>
       </c>
+      <c r="D18" t="n">
+        <v>-0.02099999999999991</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-0.35</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-0.18</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -4269,6 +5098,15 @@
       <c r="C19" t="n">
         <v>2</v>
       </c>
+      <c r="D19" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-0.08</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -4282,6 +5120,15 @@
       <c r="C20" t="n">
         <v>2</v>
       </c>
+      <c r="D20" t="n">
+        <v>0.05999999999999872</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -4295,6 +5142,15 @@
       <c r="C21" t="n">
         <v>1</v>
       </c>
+      <c r="D21" t="n">
+        <v>3.399999999999636</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -4308,6 +5164,15 @@
       <c r="C22" t="n">
         <v>1</v>
       </c>
+      <c r="D22" t="n">
+        <v>0.02000000000001023</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -4321,6 +5186,11 @@
       <c r="C23" t="n">
         <v>0</v>
       </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
